--- a/Data/瓦莱丽的米莉拉扩展包 - 3422615030/瓦莱丽的米莉拉扩展包 - 3422615030.xlsx
+++ b/Data/瓦莱丽的米莉拉扩展包 - 3422615030/瓦莱丽的米莉拉扩展包 - 3422615030.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\optol\OneDrive\바탕 화면\rimpy\translate\완성\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\optol\OneDrive\바탕 화면\rimpy\translate\임시\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD463DDE-066D-4932-82BC-51C64F460614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9C09F3-5B66-4B0A-ADD2-40A664E7FB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7245" yWindow="10470" windowWidth="32310" windowHeight="18690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5085" yWindow="1515" windowWidth="32310" windowHeight="19455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1871,42 +1871,18 @@
     <t>JK_SunLightFruitJuice.stages.Drank_the_juice_of_sunfruit.label</t>
   </si>
   <si>
-    <t>태양초 주스를 마심</t>
-  </si>
-  <si>
     <t>JK_SunLightFruitJuice.stages.Drank_the_juice_of_sunfruit.description</t>
   </si>
   <si>
-    <t>태양초 열매 주스 제작 x4</t>
-  </si>
-  <si>
-    <t>태양초 열매 주스를 만듭니다.</t>
-  </si>
-  <si>
-    <t>태양초 열매 주스 제작 중 x4</t>
-  </si>
-  <si>
-    <t>태양초 열매 주스 제작</t>
-  </si>
-  <si>
-    <t>태양초 열매 주스 제작 중</t>
-  </si>
-  <si>
     <t>고급 부품 만들기</t>
   </si>
   <si>
-    <t>태양 단조강을 사용하여 CNC 제조 센터에서 고급 부품을 조립합니다.</t>
-  </si>
-  <si>
     <t>CNC 제조 센터 작업</t>
   </si>
   <si>
     <t>부품 만들기</t>
   </si>
   <si>
-    <t>광휘 강철을 사용하여 CNC 제조 센터에서 부품을 조립합니다.</t>
-  </si>
-  <si>
     <t>태양 수정 제조 중</t>
   </si>
   <si>
@@ -1922,9 +1898,6 @@
     <t>CNC 제조</t>
   </si>
   <si>
-    <t>광휘 강철, 태양 단조강을 기반으로 CNC 기술을 활용해 각종 물건을 만들 수 있습니다.</t>
-  </si>
-  <si>
     <t>밀리라 프로토타입 기어: 패리스</t>
   </si>
   <si>
@@ -2258,9 +2231,6 @@
     <t>전자기탄</t>
   </si>
   <si>
-    <t>태양초 열매 주스</t>
-  </si>
-  <si>
     <t>{0} 마시기</t>
   </si>
   <si>
@@ -2271,9 +2241,6 @@
   </si>
   <si>
     <t>두 개의 벨트를 그냥 묶었습니다.</t>
-  </si>
-  <si>
-    <t>고산 태양초</t>
   </si>
   <si>
     <t>전탄 일제 사격</t>
@@ -2303,22 +2270,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>태양초 열매 덤불</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>태양초 열매 나무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>여러 식물의 유전자를 융합하여 만들어진 유전공학의 산물입니다. 상당히 괜찮은 생산량과 넓은 발광 범위를 갖고 있어, 조경 및 경제성에서 아주 훌륭합니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>유전자 변형 기술로 생산량이 많아진 고산 지역 태양초입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>특별히 유전자 개량된 식용 및 관상용 진달래과 식물입니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2417,6 +2372,48 @@
   <si>
     <t>짧은 메이드 복 (사이 하이 스타킹).</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태양꽃 열매 주스</t>
+  </si>
+  <si>
+    <t>태양꽃 열매 주스 제작</t>
+  </si>
+  <si>
+    <t>태양꽃 열매 주스를 만듭니다.</t>
+  </si>
+  <si>
+    <t>태양꽃 열매 주스 제작 중</t>
+  </si>
+  <si>
+    <t>태양꽃 열매 주스 제작 x4</t>
+  </si>
+  <si>
+    <t>태양꽃 열매 주스 제작 중 x4</t>
+  </si>
+  <si>
+    <t>고산 태양꽃</t>
+  </si>
+  <si>
+    <t>유전자 변형 기술로 생산량이 많아진 고산 지역 태양꽃입니다.</t>
+  </si>
+  <si>
+    <t>태양꽃 열매 덤불</t>
+  </si>
+  <si>
+    <t>태양꽃 열매 나무</t>
+  </si>
+  <si>
+    <t>태양꽃 주스를 마심</t>
+  </si>
+  <si>
+    <t>광휘강을 사용하여 CNC 제조 센터에서 부품을 조립합니다.</t>
+  </si>
+  <si>
+    <t>태양단강을 사용하여 CNC 제조 센터에서 고급 부품을 조립합니다.</t>
+  </si>
+  <si>
+    <t>광휘강, 태양단강을 기반으로 CNC 기술을 활용해 각종 물건을 만들 수 있습니다.</t>
   </si>
 </sst>
 </file>
@@ -2780,7 +2777,7 @@
   <dimension ref="A1:F219"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="F217" sqref="F217"/>
+      <selection activeCell="K150" sqref="K150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2826,7 +2823,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2843,7 +2840,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2860,7 +2857,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2877,7 +2874,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2894,7 +2891,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2911,7 +2908,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2928,7 +2925,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2945,7 +2942,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2962,7 +2959,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2979,7 +2976,7 @@
         <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2996,7 +2993,7 @@
         <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -3013,7 +3010,7 @@
         <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -3030,7 +3027,7 @@
         <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -3047,7 +3044,7 @@
         <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -3064,7 +3061,7 @@
         <v>47</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -3081,7 +3078,7 @@
         <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -3098,7 +3095,7 @@
         <v>53</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -3115,7 +3112,7 @@
         <v>56</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -3132,7 +3129,7 @@
         <v>59</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -3149,7 +3146,7 @@
         <v>62</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -3166,7 +3163,7 @@
         <v>65</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -3183,7 +3180,7 @@
         <v>68</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -3200,7 +3197,7 @@
         <v>71</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -3217,7 +3214,7 @@
         <v>74</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -3234,7 +3231,7 @@
         <v>77</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -3251,7 +3248,7 @@
         <v>80</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -3268,7 +3265,7 @@
         <v>83</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -3285,7 +3282,7 @@
         <v>86</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -3302,7 +3299,7 @@
         <v>89</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -3319,7 +3316,7 @@
         <v>92</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -3336,7 +3333,7 @@
         <v>95</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -3353,7 +3350,7 @@
         <v>98</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -3370,7 +3367,7 @@
         <v>101</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -3387,7 +3384,7 @@
         <v>104</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -3404,7 +3401,7 @@
         <v>107</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -3421,7 +3418,7 @@
         <v>110</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -3438,7 +3435,7 @@
         <v>113</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -3455,7 +3452,7 @@
         <v>116</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -3472,7 +3469,7 @@
         <v>119</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -3489,7 +3486,7 @@
         <v>122</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -3506,7 +3503,7 @@
         <v>125</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -3523,7 +3520,7 @@
         <v>128</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -3540,7 +3537,7 @@
         <v>131</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -3557,7 +3554,7 @@
         <v>134</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -3574,7 +3571,7 @@
         <v>137</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -3591,7 +3588,7 @@
         <v>140</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -3608,7 +3605,7 @@
         <v>140</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -3625,7 +3622,7 @@
         <v>145</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -3642,7 +3639,7 @@
         <v>145</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -3659,7 +3656,7 @@
         <v>150</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -3676,7 +3673,7 @@
         <v>150</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -3693,7 +3690,7 @@
         <v>155</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -3710,7 +3707,7 @@
         <v>158</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -3727,7 +3724,7 @@
         <v>161</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -3744,7 +3741,7 @@
         <v>161</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -3761,7 +3758,7 @@
         <v>166</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -3778,7 +3775,7 @@
         <v>166</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -3795,7 +3792,7 @@
         <v>171</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -3812,7 +3809,7 @@
         <v>174</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -3829,7 +3826,7 @@
         <v>177</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -3846,7 +3843,7 @@
         <v>180</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -3863,7 +3860,7 @@
         <v>183</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -3880,7 +3877,7 @@
         <v>186</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -3897,7 +3894,7 @@
         <v>189</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -3914,7 +3911,7 @@
         <v>192</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -3931,7 +3928,7 @@
         <v>195</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -3948,7 +3945,7 @@
         <v>198</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -3965,7 +3962,7 @@
         <v>195</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -3982,7 +3979,7 @@
         <v>198</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -3999,7 +3996,7 @@
         <v>205</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -4016,7 +4013,7 @@
         <v>208</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -4033,7 +4030,7 @@
         <v>211</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -4050,7 +4047,7 @@
         <v>214</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -4067,7 +4064,7 @@
         <v>217</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -4084,7 +4081,7 @@
         <v>220</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -4101,7 +4098,7 @@
         <v>223</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -4118,7 +4115,7 @@
         <v>226</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -4135,7 +4132,7 @@
         <v>229</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -4152,7 +4149,7 @@
         <v>232</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -4169,7 +4166,7 @@
         <v>235</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -4186,7 +4183,7 @@
         <v>238</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -4203,7 +4200,7 @@
         <v>241</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -4220,7 +4217,7 @@
         <v>244</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -4237,7 +4234,7 @@
         <v>247</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -4254,7 +4251,7 @@
         <v>250</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -4271,7 +4268,7 @@
         <v>247</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -4288,7 +4285,7 @@
         <v>250</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -4305,7 +4302,7 @@
         <v>257</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -4322,7 +4319,7 @@
         <v>260</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -4339,7 +4336,7 @@
         <v>263</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -4356,7 +4353,7 @@
         <v>266</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -4373,7 +4370,7 @@
         <v>266</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -4390,7 +4387,7 @@
         <v>271</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -4407,7 +4404,7 @@
         <v>274</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -4424,7 +4421,7 @@
         <v>277</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -4441,7 +4438,7 @@
         <v>277</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -4458,7 +4455,7 @@
         <v>282</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -4475,7 +4472,7 @@
         <v>285</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -4492,7 +4489,7 @@
         <v>288</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -4509,7 +4506,7 @@
         <v>288</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -4526,7 +4523,7 @@
         <v>293</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -4543,7 +4540,7 @@
         <v>296</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -4560,7 +4557,7 @@
         <v>299</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -4577,7 +4574,7 @@
         <v>302</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -4594,7 +4591,7 @@
         <v>305</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -4611,7 +4608,7 @@
         <v>299</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -4628,7 +4625,7 @@
         <v>310</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -4645,7 +4642,7 @@
         <v>302</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -4662,7 +4659,7 @@
         <v>305</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -4679,7 +4676,7 @@
         <v>317</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -4696,7 +4693,7 @@
         <v>320</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -4713,7 +4710,7 @@
         <v>320</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -4730,7 +4727,7 @@
         <v>325</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -4747,7 +4744,7 @@
         <v>328</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -4764,7 +4761,7 @@
         <v>328</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -4781,7 +4778,7 @@
         <v>328</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -4798,7 +4795,7 @@
         <v>325</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -4815,7 +4812,7 @@
         <v>337</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -4832,7 +4829,7 @@
         <v>337</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -4849,7 +4846,7 @@
         <v>337</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -4866,7 +4863,7 @@
         <v>337</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -4883,7 +4880,7 @@
         <v>346</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -4900,7 +4897,7 @@
         <v>349</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -4917,7 +4914,7 @@
         <v>352</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -4934,7 +4931,7 @@
         <v>352</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -4951,7 +4948,7 @@
         <v>357</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -4968,7 +4965,7 @@
         <v>360</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -4985,7 +4982,7 @@
         <v>363</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -5002,7 +4999,7 @@
         <v>366</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -5019,7 +5016,7 @@
         <v>302</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -5036,7 +5033,7 @@
         <v>305</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -5053,7 +5050,7 @@
         <v>374</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -5070,7 +5067,7 @@
         <v>374</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -5087,7 +5084,7 @@
         <v>374</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -5104,7 +5101,7 @@
         <v>381</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -5121,7 +5118,7 @@
         <v>381</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -5138,7 +5135,7 @@
         <v>381</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -5155,7 +5152,7 @@
         <v>388</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -5172,7 +5169,7 @@
         <v>391</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>621</v>
+        <v>785</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -5189,7 +5186,7 @@
         <v>394</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -5206,7 +5203,7 @@
         <v>397</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -5223,7 +5220,7 @@
         <v>400</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>618</v>
+        <v>786</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -5240,7 +5237,7 @@
         <v>394</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -5257,7 +5254,7 @@
         <v>406</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -5274,7 +5271,7 @@
         <v>409</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -5291,7 +5288,7 @@
         <v>412</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -5308,7 +5305,7 @@
         <v>412</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>627</v>
+        <v>787</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -5325,7 +5322,7 @@
         <v>417</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -5342,7 +5339,7 @@
         <v>420</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -5359,7 +5356,7 @@
         <v>423</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -5376,7 +5373,7 @@
         <v>426</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -5393,7 +5390,7 @@
         <v>429</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -5410,7 +5407,7 @@
         <v>432</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -5427,7 +5424,7 @@
         <v>435</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>739</v>
+        <v>774</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -5444,7 +5441,7 @@
         <v>435</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>739</v>
+        <v>774</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -5461,7 +5458,7 @@
         <v>440</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -5478,7 +5475,7 @@
         <v>443</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -5495,7 +5492,7 @@
         <v>446</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>615</v>
+        <v>775</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -5512,7 +5509,7 @@
         <v>446</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>613</v>
+        <v>776</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -5529,7 +5526,7 @@
         <v>451</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>616</v>
+        <v>777</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -5546,7 +5543,7 @@
         <v>454</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>612</v>
+        <v>778</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -5563,7 +5560,7 @@
         <v>457</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>613</v>
+        <v>776</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -5580,7 +5577,7 @@
         <v>460</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>614</v>
+        <v>779</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -5597,7 +5594,7 @@
         <v>463</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>744</v>
+        <v>780</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -5614,7 +5611,7 @@
         <v>466</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>756</v>
+        <v>781</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -5631,7 +5628,7 @@
         <v>469</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>753</v>
+        <v>782</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -5648,7 +5645,7 @@
         <v>472</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -5665,7 +5662,7 @@
         <v>475</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>754</v>
+        <v>783</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -5682,7 +5679,7 @@
         <v>478</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -5699,7 +5696,7 @@
         <v>481</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>610</v>
+        <v>784</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -5710,13 +5707,13 @@
         <v>480</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>483</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -5733,7 +5730,7 @@
         <v>486</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -5750,7 +5747,7 @@
         <v>489</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -5767,7 +5764,7 @@
         <v>486</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -5784,7 +5781,7 @@
         <v>492</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -5801,7 +5798,7 @@
         <v>494</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -5818,7 +5815,7 @@
         <v>497</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -5835,7 +5832,7 @@
         <v>500</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -5852,7 +5849,7 @@
         <v>503</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -5869,7 +5866,7 @@
         <v>500</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -5886,7 +5883,7 @@
         <v>492</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -5903,7 +5900,7 @@
         <v>494</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -5920,7 +5917,7 @@
         <v>509</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -5937,7 +5934,7 @@
         <v>512</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -5954,7 +5951,7 @@
         <v>515</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -5971,7 +5968,7 @@
         <v>512</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -5988,7 +5985,7 @@
         <v>492</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -6005,7 +6002,7 @@
         <v>494</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -6022,7 +6019,7 @@
         <v>522</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -6039,7 +6036,7 @@
         <v>522</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -6056,7 +6053,7 @@
         <v>522</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -6073,7 +6070,7 @@
         <v>492</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -6090,7 +6087,7 @@
         <v>494</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -6107,7 +6104,7 @@
         <v>531</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -6124,7 +6121,7 @@
         <v>531</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -6141,7 +6138,7 @@
         <v>531</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -6158,7 +6155,7 @@
         <v>492</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -6175,7 +6172,7 @@
         <v>494</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -6192,7 +6189,7 @@
         <v>540</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -6209,7 +6206,7 @@
         <v>543</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -6226,7 +6223,7 @@
         <v>540</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -6237,7 +6234,7 @@
         <v>7</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>492</v>
@@ -6254,7 +6251,7 @@
         <v>7</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>494</v>
@@ -6277,7 +6274,7 @@
         <v>550</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -6294,7 +6291,7 @@
         <v>553</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -6311,7 +6308,7 @@
         <v>556</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -6328,7 +6325,7 @@
         <v>559</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -6345,7 +6342,7 @@
         <v>562</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -6362,7 +6359,7 @@
         <v>565</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -6379,7 +6376,7 @@
         <v>568</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -6413,7 +6410,7 @@
         <v>565</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -6430,7 +6427,7 @@
         <v>374</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -6447,7 +6444,7 @@
         <v>579</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -6464,7 +6461,7 @@
         <v>582</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -6481,7 +6478,7 @@
         <v>585</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -6498,7 +6495,7 @@
         <v>579</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -6515,7 +6512,7 @@
         <v>582</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>
